--- a/data/3FEB_25_26/players_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26/players_25_26_3FEB.xlsx
@@ -618,10 +618,10 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>2.875</v>
+        <v>23</v>
       </c>
       <c r="S2" t="n">
         <v>21</v>
@@ -713,10 +713,10 @@
         <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.083333333333333</v>
+        <v>25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.083333333333333</v>
+        <v>13</v>
       </c>
       <c r="S3" t="n">
         <v>34</v>
@@ -808,10 +808,10 @@
         <v>19</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.25</v>
+        <v>15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.416666666666667</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>28</v>
@@ -903,10 +903,10 @@
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -990,10 +990,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
         <v>16</v>
@@ -1085,10 +1085,10 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.125</v>
+        <v>9</v>
       </c>
       <c r="S7" t="n">
         <v>7</v>
@@ -1267,10 +1267,10 @@
         <v>17</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>18</v>
       </c>
       <c r="R9" t="n">
-        <v>2.166666666666667</v>
+        <v>26</v>
       </c>
       <c r="S9" t="n">
         <v>35</v>
@@ -1362,10 +1362,10 @@
         <v>12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R10" t="n">
-        <v>1.166666666666667</v>
+        <v>14</v>
       </c>
       <c r="S10" t="n">
         <v>28</v>
@@ -1457,10 +1457,10 @@
         <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.454545454545455</v>
+        <v>16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.090909090909091</v>
+        <v>12</v>
       </c>
       <c r="S11" t="n">
         <v>44</v>
@@ -1552,10 +1552,10 @@
         <v>35</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8333333333333334</v>
+        <v>10</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>21</v>
       </c>
       <c r="S12" t="n">
         <v>27</v>
@@ -1647,10 +1647,10 @@
         <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9090909090909091</v>
+        <v>10</v>
       </c>
       <c r="R13" t="n">
-        <v>1.727272727272727</v>
+        <v>19</v>
       </c>
       <c r="S13" t="n">
         <v>41</v>
@@ -1742,10 +1742,10 @@
         <v>34</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.363636363636364</v>
+        <v>26</v>
       </c>
       <c r="R14" t="n">
-        <v>1.272727272727273</v>
+        <v>14</v>
       </c>
       <c r="S14" t="n">
         <v>26</v>
@@ -1837,10 +1837,10 @@
         <v>34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.375</v>
+        <v>11</v>
       </c>
       <c r="R15" t="n">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="S15" t="n">
         <v>24</v>
@@ -1932,10 +1932,10 @@
         <v>8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.545454545454545</v>
+        <v>17</v>
       </c>
       <c r="S16" t="n">
         <v>30</v>
@@ -2027,10 +2027,10 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2114,10 +2114,10 @@
         <v>49</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.333333333333333</v>
+        <v>16</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>27</v>
       </c>
       <c r="S18" t="n">
         <v>26</v>
@@ -2209,10 +2209,10 @@
         <v>15</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.363636363636364</v>
+        <v>15</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="S19" t="n">
         <v>27</v>
@@ -2304,10 +2304,10 @@
         <v>19</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="S20" t="n">
         <v>33</v>
@@ -2399,10 +2399,10 @@
         <v>33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="S21" t="n">
         <v>29</v>
@@ -2581,10 +2581,10 @@
         <v>8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.416666666666667</v>
+        <v>17</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>21</v>
       </c>
       <c r="S23" t="n">
         <v>24</v>
@@ -2676,10 +2676,10 @@
         <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.75</v>
+        <v>21</v>
       </c>
       <c r="S24" t="n">
         <v>19</v>
@@ -2771,10 +2771,10 @@
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.714285714285714</v>
+        <v>12</v>
       </c>
       <c r="S25" t="n">
         <v>26</v>
@@ -2866,10 +2866,10 @@
         <v>25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.083333333333333</v>
+        <v>13</v>
       </c>
       <c r="R26" t="n">
-        <v>1.416666666666667</v>
+        <v>17</v>
       </c>
       <c r="S26" t="n">
         <v>30</v>
@@ -2953,10 +2953,10 @@
         <v>21</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.75</v>
+        <v>9</v>
       </c>
       <c r="R27" t="n">
-        <v>2.916666666666667</v>
+        <v>35</v>
       </c>
       <c r="S27" t="n">
         <v>37</v>
@@ -3040,10 +3040,10 @@
         <v>16</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R28" t="n">
-        <v>2.25</v>
+        <v>27</v>
       </c>
       <c r="S28" t="n">
         <v>35</v>
@@ -3127,10 +3127,10 @@
         <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S29" t="n">
         <v>31</v>
@@ -3222,10 +3222,10 @@
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
         <v>22</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3333333333333333</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
         <v>4</v>
@@ -3404,10 +3404,10 @@
         <v>20</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R32" t="n">
-        <v>1.818181818181818</v>
+        <v>20</v>
       </c>
       <c r="S32" t="n">
         <v>23</v>
@@ -3586,10 +3586,10 @@
         <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="S34" t="n">
         <v>17</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
         <v>2</v>
@@ -3847,10 +3847,10 @@
         <v>30</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.222222222222222</v>
+        <v>20</v>
       </c>
       <c r="R37" t="n">
-        <v>2.555555555555555</v>
+        <v>23</v>
       </c>
       <c r="S37" t="n">
         <v>20</v>
@@ -3942,10 +3942,10 @@
         <v>16</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.166666666666667</v>
+        <v>14</v>
       </c>
       <c r="R38" t="n">
-        <v>1.333333333333333</v>
+        <v>16</v>
       </c>
       <c r="S38" t="n">
         <v>42</v>
@@ -4029,10 +4029,10 @@
         <v>10</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5454545454545454</v>
+        <v>6</v>
       </c>
       <c r="R39" t="n">
-        <v>1.181818181818182</v>
+        <v>13</v>
       </c>
       <c r="S39" t="n">
         <v>33</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.625</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -4219,10 +4219,10 @@
         <v>17</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="S41" t="n">
         <v>36</v>
@@ -4314,10 +4314,10 @@
         <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>1.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
         <v>12</v>
@@ -4409,10 +4409,10 @@
         <v>12</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R43" t="n">
-        <v>2.5</v>
+        <v>30</v>
       </c>
       <c r="S43" t="n">
         <v>49</v>
@@ -4504,10 +4504,10 @@
         <v>54</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.909090909090909</v>
+        <v>21</v>
       </c>
       <c r="R44" t="n">
-        <v>2.636363636363636</v>
+        <v>29</v>
       </c>
       <c r="S44" t="n">
         <v>18</v>
@@ -4599,10 +4599,10 @@
         <v>19</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="R45" t="n">
-        <v>1.583333333333333</v>
+        <v>19</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -4694,10 +4694,10 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -4781,10 +4781,10 @@
         <v>14</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.4545454545454545</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -4876,10 +4876,10 @@
         <v>21</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.8333333333333334</v>
+        <v>10</v>
       </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S48" t="n">
         <v>27</v>
@@ -4963,10 +4963,10 @@
         <v>41</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.181818181818182</v>
+        <v>13</v>
       </c>
       <c r="R49" t="n">
-        <v>1.636363636363636</v>
+        <v>18</v>
       </c>
       <c r="S49" t="n">
         <v>29</v>
@@ -5058,10 +5058,10 @@
         <v>14</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.166666666666667</v>
+        <v>14</v>
       </c>
       <c r="R50" t="n">
-        <v>2.416666666666667</v>
+        <v>29</v>
       </c>
       <c r="S50" t="n">
         <v>31</v>
@@ -5153,10 +5153,10 @@
         <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="R51" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="S51" t="n">
         <v>7</v>
@@ -5248,10 +5248,10 @@
         <v>10</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.3333333333333333</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>1.5</v>
+        <v>18</v>
       </c>
       <c r="S52" t="n">
         <v>26</v>
@@ -5517,10 +5517,10 @@
         <v>6</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R55" t="n">
-        <v>1.727272727272727</v>
+        <v>19</v>
       </c>
       <c r="S55" t="n">
         <v>37</v>
@@ -5612,10 +5612,10 @@
         <v>23</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.9090909090909091</v>
+        <v>10</v>
       </c>
       <c r="R56" t="n">
-        <v>2.818181818181818</v>
+        <v>31</v>
       </c>
       <c r="S56" t="n">
         <v>24</v>
@@ -5707,10 +5707,10 @@
         <v>14</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.75</v>
+        <v>9</v>
       </c>
       <c r="R57" t="n">
-        <v>1.166666666666667</v>
+        <v>14</v>
       </c>
       <c r="S57" t="n">
         <v>34</v>
@@ -5794,10 +5794,10 @@
         <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -5881,10 +5881,10 @@
         <v>7</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.6363636363636364</v>
+        <v>7</v>
       </c>
       <c r="R59" t="n">
-        <v>0.8181818181818182</v>
+        <v>9</v>
       </c>
       <c r="S59" t="n">
         <v>31</v>
@@ -5976,10 +5976,10 @@
         <v>29</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.333333333333333</v>
+        <v>16</v>
       </c>
       <c r="R60" t="n">
-        <v>2.333333333333333</v>
+        <v>28</v>
       </c>
       <c r="S60" t="n">
         <v>27</v>
@@ -6071,10 +6071,10 @@
         <v>7</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.1818181818181818</v>
+        <v>2</v>
       </c>
       <c r="R61" t="n">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="S61" t="n">
         <v>29</v>
@@ -6166,10 +6166,10 @@
         <v>35</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.181818181818182</v>
+        <v>24</v>
       </c>
       <c r="R62" t="n">
-        <v>3.090909090909091</v>
+        <v>34</v>
       </c>
       <c r="S62" t="n">
         <v>27</v>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1818181818181818</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
         <v>11</v>
@@ -6435,10 +6435,10 @@
         <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
       <c r="R65" t="n">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -6522,10 +6522,10 @@
         <v>31</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R66" t="n">
-        <v>1.9</v>
+        <v>19</v>
       </c>
       <c r="S66" t="n">
         <v>35</v>
@@ -6617,10 +6617,10 @@
         <v>13</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="R67" t="n">
-        <v>1.75</v>
+        <v>14</v>
       </c>
       <c r="S67" t="n">
         <v>14</v>
@@ -6712,10 +6712,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="S68" t="n">
         <v>6</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="S69" t="n">
         <v>8</v>
@@ -6886,10 +6886,10 @@
         <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R70" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S70" t="n">
         <v>7</v>
@@ -6981,10 +6981,10 @@
         <v>26</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.545454545454545</v>
+        <v>17</v>
       </c>
       <c r="R71" t="n">
-        <v>2.545454545454545</v>
+        <v>28</v>
       </c>
       <c r="S71" t="n">
         <v>35</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S72" t="n">
         <v>3</v>
@@ -7163,10 +7163,10 @@
         <v>6</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.083333333333333</v>
+        <v>13</v>
       </c>
       <c r="R73" t="n">
-        <v>0.9166666666666666</v>
+        <v>11</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -7258,10 +7258,10 @@
         <v>22</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R74" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="S74" t="n">
         <v>23</v>
@@ -7353,10 +7353,10 @@
         <v>3</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
       <c r="R75" t="n">
-        <v>0.1666666666666667</v>
+        <v>2</v>
       </c>
       <c r="S75" t="n">
         <v>16</v>
@@ -7440,10 +7440,10 @@
         <v>14</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.363636363636364</v>
+        <v>15</v>
       </c>
       <c r="R76" t="n">
-        <v>1.272727272727273</v>
+        <v>14</v>
       </c>
       <c r="S76" t="n">
         <v>27</v>
@@ -7535,10 +7535,10 @@
         <v>5</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="R77" t="n">
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="S77" t="n">
         <v>18</v>
@@ -7630,10 +7630,10 @@
         <v>8</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="R78" t="n">
-        <v>2.1</v>
+        <v>21</v>
       </c>
       <c r="S78" t="n">
         <v>30</v>
@@ -7725,10 +7725,10 @@
         <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R79" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="S79" t="n">
         <v>2</v>
@@ -7820,10 +7820,10 @@
         <v>7</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R80" t="n">
-        <v>1.083333333333333</v>
+        <v>13</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -7907,10 +7907,10 @@
         <v>17</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="R81" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S81" t="n">
         <v>42</v>
@@ -8002,10 +8002,10 @@
         <v>12</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.4166666666666667</v>
+        <v>5</v>
       </c>
       <c r="R82" t="n">
-        <v>2.416666666666667</v>
+        <v>29</v>
       </c>
       <c r="S82" t="n">
         <v>41</v>
@@ -8097,10 +8097,10 @@
         <v>9</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.090909090909091</v>
+        <v>12</v>
       </c>
       <c r="R83" t="n">
-        <v>1.727272727272727</v>
+        <v>19</v>
       </c>
       <c r="S83" t="n">
         <v>36</v>
@@ -8192,10 +8192,10 @@
         <v>9</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.4166666666666667</v>
+        <v>5</v>
       </c>
       <c r="R84" t="n">
-        <v>1.333333333333333</v>
+        <v>16</v>
       </c>
       <c r="S84" t="n">
         <v>27</v>
@@ -8287,10 +8287,10 @@
         <v>6</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="R85" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="S85" t="n">
         <v>21</v>
@@ -8382,10 +8382,10 @@
         <v>2</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="R86" t="n">
-        <v>1.125</v>
+        <v>9</v>
       </c>
       <c r="S86" t="n">
         <v>9</v>
@@ -8469,10 +8469,10 @@
         <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R87" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>20</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.4166666666666667</v>
+        <v>5</v>
       </c>
       <c r="R88" t="n">
-        <v>2.333333333333333</v>
+        <v>28</v>
       </c>
       <c r="S88" t="n">
         <v>35</v>
@@ -8651,10 +8651,10 @@
         <v>6</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.6363636363636364</v>
+        <v>7</v>
       </c>
       <c r="R89" t="n">
-        <v>0.5454545454545454</v>
+        <v>6</v>
       </c>
       <c r="S89" t="n">
         <v>20</v>
@@ -8833,10 +8833,10 @@
         <v>2</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="R91" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="S91" t="n">
         <v>7</v>
@@ -8920,10 +8920,10 @@
         <v>4</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="R92" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="S92" t="n">
         <v>9</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="S93" t="n">
         <v>1</v>
@@ -9102,10 +9102,10 @@
         <v>4</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.4545454545454545</v>
+        <v>5</v>
       </c>
       <c r="R94" t="n">
-        <v>0.4545454545454545</v>
+        <v>5</v>
       </c>
       <c r="S94" t="n">
         <v>27</v>
@@ -9197,10 +9197,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.2727272727272727</v>
+        <v>3</v>
       </c>
       <c r="R95" t="n">
-        <v>1.454545454545455</v>
+        <v>16</v>
       </c>
       <c r="S95" t="n">
         <v>22</v>
@@ -9292,10 +9292,10 @@
         <v>35</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.416666666666667</v>
+        <v>17</v>
       </c>
       <c r="R96" t="n">
-        <v>2.333333333333333</v>
+        <v>28</v>
       </c>
       <c r="S96" t="n">
         <v>22</v>
@@ -9387,10 +9387,10 @@
         <v>5</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="R97" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="S97" t="n">
         <v>4</v>
@@ -9482,10 +9482,10 @@
         <v>23</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.636363636363636</v>
+        <v>18</v>
       </c>
       <c r="R98" t="n">
-        <v>1.272727272727273</v>
+        <v>14</v>
       </c>
       <c r="S98" t="n">
         <v>24</v>
@@ -9577,10 +9577,10 @@
         <v>13</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.8181818181818182</v>
+        <v>9</v>
       </c>
       <c r="R99" t="n">
-        <v>2.090909090909091</v>
+        <v>23</v>
       </c>
       <c r="S99" t="n">
         <v>31</v>
@@ -9672,10 +9672,10 @@
         <v>7</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="R100" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="S100" t="n">
         <v>23</v>
@@ -9767,10 +9767,10 @@
         <v>12</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="R101" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S101" t="n">
         <v>21</v>
@@ -9862,10 +9862,10 @@
         <v>17</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.083333333333333</v>
+        <v>13</v>
       </c>
       <c r="R102" t="n">
-        <v>2.083333333333333</v>
+        <v>25</v>
       </c>
       <c r="S102" t="n">
         <v>32</v>
@@ -9957,10 +9957,10 @@
         <v>21</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="R103" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="S103" t="n">
         <v>16</v>
@@ -10052,10 +10052,10 @@
         <v>18</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.5833333333333334</v>
+        <v>7</v>
       </c>
       <c r="R104" t="n">
-        <v>1.416666666666667</v>
+        <v>17</v>
       </c>
       <c r="S104" t="n">
         <v>28</v>
@@ -10147,10 +10147,10 @@
         <v>3</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R105" t="n">
-        <v>1.142857142857143</v>
+        <v>8</v>
       </c>
       <c r="S105" t="n">
         <v>17</v>
@@ -10242,10 +10242,10 @@
         <v>4</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="R106" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="S106" t="n">
         <v>7</v>
@@ -10329,10 +10329,10 @@
         <v>33</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.090909090909091</v>
+        <v>12</v>
       </c>
       <c r="R107" t="n">
-        <v>2.181818181818182</v>
+        <v>24</v>
       </c>
       <c r="S107" t="n">
         <v>33</v>
@@ -10424,10 +10424,10 @@
         <v>4</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.625</v>
+        <v>5</v>
       </c>
       <c r="R108" t="n">
-        <v>1.125</v>
+        <v>9</v>
       </c>
       <c r="S108" t="n">
         <v>9</v>
@@ -10511,10 +10511,10 @@
         <v>3</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.181818181818182</v>
+        <v>13</v>
       </c>
       <c r="R109" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S109" t="n">
         <v>18</v>
@@ -10606,10 +10606,10 @@
         <v>7</v>
       </c>
       <c r="Q110" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R110" t="n">
-        <v>1.454545454545455</v>
+        <v>16</v>
       </c>
       <c r="S110" t="n">
         <v>31</v>
@@ -10701,10 +10701,10 @@
         <v>6</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
       <c r="R111" t="n">
-        <v>1.416666666666667</v>
+        <v>17</v>
       </c>
       <c r="S111" t="n">
         <v>27</v>
@@ -10796,10 +10796,10 @@
         <v>9</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="R112" t="n">
-        <v>1.090909090909091</v>
+        <v>12</v>
       </c>
       <c r="S112" t="n">
         <v>11</v>
@@ -10891,10 +10891,10 @@
         <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S113" t="n">
         <v>6</v>
@@ -10986,10 +10986,10 @@
         <v>20</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.166666666666667</v>
+        <v>14</v>
       </c>
       <c r="R114" t="n">
-        <v>1.916666666666667</v>
+        <v>23</v>
       </c>
       <c r="S114" t="n">
         <v>26</v>
@@ -11081,10 +11081,10 @@
         <v>3</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="R115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S115" t="n">
         <v>4</v>
@@ -11176,10 +11176,10 @@
         <v>38</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.545454545454545</v>
+        <v>17</v>
       </c>
       <c r="R116" t="n">
-        <v>2.727272727272727</v>
+        <v>30</v>
       </c>
       <c r="S116" t="n">
         <v>23</v>
@@ -11271,10 +11271,10 @@
         <v>8</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
       <c r="R117" t="n">
-        <v>1.666666666666667</v>
+        <v>15</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -11540,10 +11540,10 @@
         <v>7</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.9166666666666666</v>
+        <v>11</v>
       </c>
       <c r="R120" t="n">
-        <v>1.25</v>
+        <v>15</v>
       </c>
       <c r="S120" t="n">
         <v>21</v>
@@ -11627,10 +11627,10 @@
         <v>10</v>
       </c>
       <c r="Q121" t="n">
+        <v>10</v>
+      </c>
+      <c r="R121" t="n">
         <v>2</v>
-      </c>
-      <c r="R121" t="n">
-        <v>0.4</v>
       </c>
       <c r="S121" t="n">
         <v>11</v>
@@ -11722,10 +11722,10 @@
         <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="R122" t="n">
-        <v>2.125</v>
+        <v>17</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -11904,10 +11904,10 @@
         <v>4</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="R124" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -11999,10 +11999,10 @@
         <v>4</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="R125" t="n">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="S125" t="n">
         <v>24</v>
@@ -12086,10 +12086,10 @@
         <v>24</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.181818181818182</v>
+        <v>13</v>
       </c>
       <c r="R126" t="n">
-        <v>3.181818181818182</v>
+        <v>35</v>
       </c>
       <c r="S126" t="n">
         <v>21</v>
@@ -12181,10 +12181,10 @@
         <v>4</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.4545454545454545</v>
+        <v>5</v>
       </c>
       <c r="R127" t="n">
-        <v>2.454545454545455</v>
+        <v>27</v>
       </c>
       <c r="S127" t="n">
         <v>25</v>
@@ -12276,10 +12276,10 @@
         <v>2</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.5555555555555556</v>
+        <v>5</v>
       </c>
       <c r="R128" t="n">
-        <v>1.777777777777778</v>
+        <v>16</v>
       </c>
       <c r="S128" t="n">
         <v>34</v>
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="R129" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S129" t="n">
         <v>1</v>
@@ -12458,10 +12458,10 @@
         <v>12</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="R130" t="n">
-        <v>3.333333333333333</v>
+        <v>20</v>
       </c>
       <c r="S130" t="n">
         <v>13</v>
@@ -12553,10 +12553,10 @@
         <v>6</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
       <c r="R131" t="n">
-        <v>0.75</v>
+        <v>9</v>
       </c>
       <c r="S131" t="n">
         <v>21</v>
@@ -12648,10 +12648,10 @@
         <v>33</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.416666666666667</v>
+        <v>17</v>
       </c>
       <c r="R132" t="n">
-        <v>2.5</v>
+        <v>30</v>
       </c>
       <c r="S132" t="n">
         <v>32</v>
@@ -12743,10 +12743,10 @@
         <v>17</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="R133" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="S133" t="n">
         <v>20</v>
@@ -12838,10 +12838,10 @@
         <v>31</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.083333333333333</v>
+        <v>25</v>
       </c>
       <c r="R134" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S134" t="n">
         <v>17</v>
@@ -13020,10 +13020,10 @@
         <v>7</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="R136" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="S136" t="n">
         <v>9</v>
@@ -13107,10 +13107,10 @@
         <v>23</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.6363636363636364</v>
+        <v>7</v>
       </c>
       <c r="R137" t="n">
-        <v>1.363636363636364</v>
+        <v>15</v>
       </c>
       <c r="S137" t="n">
         <v>11</v>
@@ -13289,10 +13289,10 @@
         <v>8</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="R139" t="n">
-        <v>2.090909090909091</v>
+        <v>23</v>
       </c>
       <c r="S139" t="n">
         <v>33</v>
@@ -13384,10 +13384,10 @@
         <v>13</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="R140" t="n">
-        <v>1.272727272727273</v>
+        <v>14</v>
       </c>
       <c r="S140" t="n">
         <v>21</v>
@@ -13479,10 +13479,10 @@
         <v>6</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.8888888888888888</v>
+        <v>8</v>
       </c>
       <c r="R141" t="n">
-        <v>1.888888888888889</v>
+        <v>17</v>
       </c>
       <c r="S141" t="n">
         <v>19</v>
@@ -13577,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="R142" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S142" t="n">
         <v>2</v>
@@ -13661,10 +13661,10 @@
         <v>4</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.714285714285714</v>
+        <v>12</v>
       </c>
       <c r="R143" t="n">
-        <v>1.142857142857143</v>
+        <v>8</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -13756,10 +13756,10 @@
         <v>2</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="R144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S144" t="n">
         <v>5</v>
@@ -13854,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="R145" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S145" t="n">
         <v>1</v>
@@ -13946,10 +13946,10 @@
         <v>4</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.2222222222222222</v>
+        <v>2</v>
       </c>
       <c r="R146" t="n">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
       <c r="S146" t="n">
         <v>11</v>
@@ -14041,10 +14041,10 @@
         <v>3</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="R147" t="n">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
       <c r="S147" t="n">
         <v>15</v>
@@ -14215,10 +14215,10 @@
         <v>4</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R149" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S149" t="n">
         <v>3</v>
@@ -14302,10 +14302,10 @@
         <v>25</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="R150" t="n">
-        <v>1.833333333333333</v>
+        <v>22</v>
       </c>
       <c r="S150" t="n">
         <v>22</v>
@@ -14397,10 +14397,10 @@
         <v>9</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.3636363636363636</v>
+        <v>4</v>
       </c>
       <c r="R151" t="n">
-        <v>1.545454545454545</v>
+        <v>17</v>
       </c>
       <c r="S151" t="n">
         <v>33</v>
@@ -14492,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="Q152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R152" t="n">
         <v>0</v>
@@ -14579,10 +14579,10 @@
         <v>12</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="R153" t="n">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="S153" t="n">
         <v>15</v>
@@ -14674,10 +14674,10 @@
         <v>15</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.636363636363636</v>
+        <v>18</v>
       </c>
       <c r="R154" t="n">
-        <v>1.363636363636364</v>
+        <v>15</v>
       </c>
       <c r="S154" t="n">
         <v>29</v>
@@ -14769,10 +14769,10 @@
         <v>70</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.5</v>
+        <v>30</v>
       </c>
       <c r="R155" t="n">
-        <v>2.416666666666667</v>
+        <v>29</v>
       </c>
       <c r="S155" t="n">
         <v>25</v>
@@ -14864,10 +14864,10 @@
         <v>16</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="R156" t="n">
-        <v>1.625</v>
+        <v>13</v>
       </c>
       <c r="S156" t="n">
         <v>22</v>
@@ -14959,10 +14959,10 @@
         <v>24</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="R157" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S157" t="n">
         <v>25</v>
@@ -15054,10 +15054,10 @@
         <v>26</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.272727272727273</v>
+        <v>14</v>
       </c>
       <c r="R158" t="n">
-        <v>1.909090909090909</v>
+        <v>21</v>
       </c>
       <c r="S158" t="n">
         <v>26</v>
@@ -15149,10 +15149,10 @@
         <v>5</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.5833333333333334</v>
+        <v>7</v>
       </c>
       <c r="R159" t="n">
-        <v>0.8333333333333334</v>
+        <v>10</v>
       </c>
       <c r="S159" t="n">
         <v>41</v>
@@ -15244,10 +15244,10 @@
         <v>1</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
       <c r="R160" t="n">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
       <c r="S160" t="n">
         <v>15</v>
@@ -15331,10 +15331,10 @@
         <v>5</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
       <c r="R161" t="n">
-        <v>0.9166666666666666</v>
+        <v>11</v>
       </c>
       <c r="S161" t="n">
         <v>15</v>
@@ -15418,10 +15418,10 @@
         <v>4</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="R162" t="n">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="S162" t="n">
         <v>5</v>
@@ -15505,10 +15505,10 @@
         <v>9</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.9090909090909091</v>
+        <v>10</v>
       </c>
       <c r="R163" t="n">
-        <v>1.181818181818182</v>
+        <v>13</v>
       </c>
       <c r="S163" t="n">
         <v>28</v>
@@ -15600,10 +15600,10 @@
         <v>5</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.3333333333333333</v>
+        <v>4</v>
       </c>
       <c r="R164" t="n">
-        <v>0.8333333333333334</v>
+        <v>10</v>
       </c>
       <c r="S164" t="n">
         <v>13</v>
@@ -15695,10 +15695,10 @@
         <v>9</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.4166666666666667</v>
+        <v>5</v>
       </c>
       <c r="R165" t="n">
-        <v>0.75</v>
+        <v>9</v>
       </c>
       <c r="S165" t="n">
         <v>20</v>
@@ -15790,10 +15790,10 @@
         <v>7</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.875</v>
+        <v>7</v>
       </c>
       <c r="R166" t="n">
-        <v>0.875</v>
+        <v>7</v>
       </c>
       <c r="S166" t="n">
         <v>10</v>
@@ -15885,10 +15885,10 @@
         <v>12</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.7272727272727273</v>
+        <v>8</v>
       </c>
       <c r="R167" t="n">
-        <v>1.454545454545455</v>
+        <v>16</v>
       </c>
       <c r="S167" t="n">
         <v>19</v>
@@ -15980,10 +15980,10 @@
         <v>6</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="R168" t="n">
-        <v>0.75</v>
+        <v>9</v>
       </c>
       <c r="S168" t="n">
         <v>17</v>
@@ -16075,10 +16075,10 @@
         <v>30</v>
       </c>
       <c r="Q169" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R169" t="n">
-        <v>1.363636363636364</v>
+        <v>15</v>
       </c>
       <c r="S169" t="n">
         <v>26</v>
@@ -16170,10 +16170,10 @@
         <v>26</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.4166666666666667</v>
+        <v>5</v>
       </c>
       <c r="R170" t="n">
-        <v>1.166666666666667</v>
+        <v>14</v>
       </c>
       <c r="S170" t="n">
         <v>20</v>
@@ -16257,10 +16257,10 @@
         <v>40</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.166666666666667</v>
+        <v>26</v>
       </c>
       <c r="R171" t="n">
-        <v>1.75</v>
+        <v>21</v>
       </c>
       <c r="S171" t="n">
         <v>28</v>
@@ -16352,10 +16352,10 @@
         <v>21</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.583333333333333</v>
+        <v>19</v>
       </c>
       <c r="R172" t="n">
-        <v>1.583333333333333</v>
+        <v>19</v>
       </c>
       <c r="S172" t="n">
         <v>19</v>
@@ -16447,10 +16447,10 @@
         <v>66</v>
       </c>
       <c r="Q173" t="n">
-        <v>1.083333333333333</v>
+        <v>13</v>
       </c>
       <c r="R173" t="n">
-        <v>2.833333333333333</v>
+        <v>34</v>
       </c>
       <c r="S173" t="n">
         <v>39</v>
@@ -16534,10 +16534,10 @@
         <v>6</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.3636363636363636</v>
+        <v>4</v>
       </c>
       <c r="R174" t="n">
-        <v>0.6363636363636364</v>
+        <v>7</v>
       </c>
       <c r="S174" t="n">
         <v>11</v>
@@ -16629,10 +16629,10 @@
         <v>4</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.2727272727272727</v>
+        <v>3</v>
       </c>
       <c r="R175" t="n">
-        <v>0.2727272727272727</v>
+        <v>3</v>
       </c>
       <c r="S175" t="n">
         <v>15</v>
@@ -16724,10 +16724,10 @@
         <v>19</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="R176" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="S176" t="n">
         <v>24</v>
@@ -16819,10 +16819,10 @@
         <v>17</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.9166666666666666</v>
+        <v>11</v>
       </c>
       <c r="R177" t="n">
-        <v>1.166666666666667</v>
+        <v>14</v>
       </c>
       <c r="S177" t="n">
         <v>16</v>
@@ -16914,10 +16914,10 @@
         <v>0</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R178" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S178" t="n">
         <v>0</v>
@@ -17001,10 +17001,10 @@
         <v>0</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R179" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S179" t="n">
         <v>3</v>
@@ -17088,10 +17088,10 @@
         <v>32</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.166666666666667</v>
+        <v>14</v>
       </c>
       <c r="R180" t="n">
-        <v>1.916666666666667</v>
+        <v>23</v>
       </c>
       <c r="S180" t="n">
         <v>28</v>
@@ -17183,10 +17183,10 @@
         <v>9</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.4545454545454545</v>
+        <v>5</v>
       </c>
       <c r="R181" t="n">
-        <v>1.090909090909091</v>
+        <v>12</v>
       </c>
       <c r="S181" t="n">
         <v>16</v>
@@ -17278,10 +17278,10 @@
         <v>17</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="R182" t="n">
-        <v>1.75</v>
+        <v>21</v>
       </c>
       <c r="S182" t="n">
         <v>16</v>
@@ -17376,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="R183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S183" t="n">
         <v>4</v>
@@ -17547,10 +17547,10 @@
         <v>6</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.3636363636363636</v>
+        <v>4</v>
       </c>
       <c r="R185" t="n">
-        <v>1.454545454545455</v>
+        <v>16</v>
       </c>
       <c r="S185" t="n">
         <v>17</v>
@@ -17642,10 +17642,10 @@
         <v>18</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.9166666666666666</v>
+        <v>11</v>
       </c>
       <c r="R186" t="n">
-        <v>2.25</v>
+        <v>27</v>
       </c>
       <c r="S186" t="n">
         <v>27</v>
@@ -17832,10 +17832,10 @@
         <v>5</v>
       </c>
       <c r="Q188" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R188" t="n">
-        <v>1.166666666666667</v>
+        <v>7</v>
       </c>
       <c r="S188" t="n">
         <v>11</v>
@@ -17927,10 +17927,10 @@
         <v>6</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="R189" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S189" t="n">
         <v>4</v>
@@ -18109,10 +18109,10 @@
         <v>14</v>
       </c>
       <c r="Q191" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R191" t="n">
-        <v>1.5</v>
+        <v>18</v>
       </c>
       <c r="S191" t="n">
         <v>32</v>
@@ -18204,10 +18204,10 @@
         <v>35</v>
       </c>
       <c r="Q192" t="n">
-        <v>1.166666666666667</v>
+        <v>14</v>
       </c>
       <c r="R192" t="n">
-        <v>3.25</v>
+        <v>39</v>
       </c>
       <c r="S192" t="n">
         <v>25</v>
@@ -18299,10 +18299,10 @@
         <v>7</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R193" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S193" t="n">
         <v>22</v>
@@ -18394,10 +18394,10 @@
         <v>6</v>
       </c>
       <c r="Q194" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R194" t="n">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
       <c r="S194" t="n">
         <v>31</v>
@@ -18489,10 +18489,10 @@
         <v>7</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="R195" t="n">
-        <v>0.75</v>
+        <v>9</v>
       </c>
       <c r="S195" t="n">
         <v>42</v>
@@ -18584,10 +18584,10 @@
         <v>1</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.09090909090909091</v>
+        <v>1</v>
       </c>
       <c r="R196" t="n">
-        <v>0.2727272727272727</v>
+        <v>3</v>
       </c>
       <c r="S196" t="n">
         <v>21</v>
@@ -18679,10 +18679,10 @@
         <v>9</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="R197" t="n">
-        <v>0.75</v>
+        <v>9</v>
       </c>
       <c r="S197" t="n">
         <v>11</v>
@@ -18774,10 +18774,10 @@
         <v>8</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
       <c r="R198" t="n">
-        <v>0.8333333333333334</v>
+        <v>10</v>
       </c>
       <c r="S198" t="n">
         <v>45</v>
@@ -18869,7 +18869,7 @@
         <v>0</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R199" t="n">
         <v>0</v>
@@ -18956,10 +18956,10 @@
         <v>20</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.6363636363636364</v>
+        <v>7</v>
       </c>
       <c r="R200" t="n">
-        <v>1.545454545454545</v>
+        <v>17</v>
       </c>
       <c r="S200" t="n">
         <v>15</v>
@@ -19051,10 +19051,10 @@
         <v>17</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.7142857142857143</v>
+        <v>5</v>
       </c>
       <c r="R201" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="S201" t="n">
         <v>24</v>
@@ -19146,10 +19146,10 @@
         <v>10</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="R202" t="n">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="S202" t="n">
         <v>7</v>
